--- a/data/trans_camb/P54_A_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,78</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,81; -12,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,79; -11,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,18; -15,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,89; -13,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,42; -14,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,49; -13,7</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,51%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,14; -90,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,45; -84,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,39; -93,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,76; -82,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,93; -94,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,89; -85,59</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,78</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,23; -7,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,52; -9,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,06; -13,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,98; -11,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,96; -11,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,14; -11,42</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,41%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -59,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,92; -84,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,94; -70,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,73; -75,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,9; -77,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,7; -81,69</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,43</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,9; -6,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,78; -4,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,84; -12,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,71; -11,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,13; -10,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,77; -8,84</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,97%</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,66; -55,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -84,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,9; -71,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -88,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,23; -75,3</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,73</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,08; -11,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,73; -11,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,94; -15,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,57; -14,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; -14,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,26; -13,16</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,57%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,52; -85,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,23; -86,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,32; -87,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,63; -82,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,73; -90,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,15; -85,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-15,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-15,07</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-18,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-16,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-16,97</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-15,78</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-15.82313479026518</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-15.07314586257244</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-18.10433644556207</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-16.45201245864101</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-16.99122542587895</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-15.7709550296367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,81; -12,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,79; -11,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-21,18; -15,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-19,89; -13,7</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-19,42; -14,76</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-18,49; -13,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.97753619150351</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.7825861687293</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.17828402785937</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-19.83032085418728</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-19.51720345815682</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-18.46208386346845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-96,74%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-92,22%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-97,79%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-89,15%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-97,31%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-90,51%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-12.64128487834692</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-11.63025670719824</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-15.16350392830844</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-13.66279877255363</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-14.90333406322941</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-13.66536549685764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-99,14; -90,88</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-96,45; -84,23</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-99,39; -93,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-93,76; -82,11</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-98,93; -94,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-93,89; -85,59</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.9683526181520995</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.9224543968866674</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.9795341362756653</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.8901352370537596</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.9744830901750882</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9044979751069196</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-12,25</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-16,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-15,42</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,34</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-13,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.991466353541667</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.9641536061224332</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.9938895996354643</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.9365821082036664</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.989089733394402</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.938577997091256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,23; -7,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,52; -9,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-20,06; -13,06</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-18,98; -11,78</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; -11,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-16,14; -11,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.9127625197831839</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.8408350683470917</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.9373576018742035</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.8161310677023571</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.9461425420180308</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.8563355190537846</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-91,46%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-93,53%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-92,45%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-84,79%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-92,01%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-88,41%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-12.10059153334173</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-12.29462345956015</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-17.08842097285917</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-15.34005935356195</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-14.5422907670464</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-13.76641500453973</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -59,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-97,92; -84,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-98,94; -70,9</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-91,73; -75,5</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-97,9; -77,83</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-92,7; -81,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.41380832209399</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.54631344353287</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-20.3009353890025</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.97242363292098</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-17.01170951239622</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-16.1303573318286</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-10,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-9,47</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-19,14</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-17,83</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-14,81</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-13,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-8.432887411710936</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-9.184627686090774</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-13.40243243285559</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-11.67240732758645</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-12.19482573312045</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-11.41924102376113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-17,9; -6,22</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-16,78; -4,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-25,84; -12,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-24,71; -11,36</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-19,13; -10,65</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-17,77; -8,84</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.9239597554727377</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.9387753692886989</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.9397011084538334</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.8435577986511815</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.9328867547184297</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.8831143884699352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-86,75%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-97,05%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-90,42%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-98,12%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-88,97%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.9814436618851002</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.9876922411410035</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.9133901827540433</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.9837315800104929</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.9265689297587361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-98,66; -55,41</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -84,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-97,9; -71,8</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -88,52</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-96,23; -75,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.6371652226897437</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.8554725959357334</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.7905061440979771</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.7475140293499992</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.805625200742996</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.815457440806533</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,313 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-13,69</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-13,27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-17,7</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-16,22</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-15,69</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-14,73</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-10.91851274268008</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-9.479102211407593</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-19.18750125079123</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-17.86484920590259</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-14.83575796263956</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-13.4521518129905</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-16,08; -11,54</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-15,73; -11,22</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-19,94; -15,78</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-18,57; -14,14</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-17,3; -14,11</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-16,26; -13,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-17.19996466953447</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-16.78437321569911</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-25.92860734548397</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-24.80588888308534</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-19.16851750679132</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-17.74120300074933</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-95,13%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-92,2%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-95,68%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-87,66%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-95,44%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-89,57%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-6.090153660633832</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-4.460516860722736</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-13.00620020994908</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-11.62182791064227</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-10.53681675163103</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-8.858671524625837</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-98,52; -85,58</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-95,23; -86,91</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-98,32; -87,65</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-91,63; -82,53</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-97,73; -90,06</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-92,15; -85,72</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.8681678938152552</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.9729171549893491</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.9058510556711361</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.9826591684940231</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.8910148270346091</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.9794450527012736</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.9612430370786439</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>-0.5587209489003585</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.8626171265828056</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.7244115370962084</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.902527419181413</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.7495285000952898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-13.74839460128396</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-13.29188431852483</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-17.82988791548391</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-16.17857412189229</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-15.78382835800458</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-14.71852438349097</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-16.18470281844163</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-15.75225505978957</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-19.92232150603962</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-18.54507580244879</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-17.25037727351517</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-16.25994564509001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-11.66325684730888</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-11.24290065691776</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-15.93727206295875</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-14.08426166136646</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-14.16459611237946</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-13.16496147898988</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.9551770676741052</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.9234607716341134</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.9636516738944153</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.8744031430644721</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9599168425542279</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.8951288073335475</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.9866868656858422</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.9534658986574068</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.9855094795559093</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.9151804667645816</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.9803524458059771</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.9216771348627424</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.8646362512517587</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.8703230077199404</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.9030670266950929</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.8234157074753201</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.919823354710438</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.8557861939777429</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1221,14 +1242,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
